--- a/models/src/resources/models/naif/SGDEA/FONDO - COLEGIO LA SALLE BUCARAMANGA.xlsx
+++ b/models/src/resources/models/naif/SGDEA/FONDO - COLEGIO LA SALLE BUCARAMANGA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Empresas" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="148">
   <si>
     <t>nombre</t>
   </si>
@@ -385,6 +385,93 @@
   </si>
   <si>
     <t>RETIRO DE PERSONAL</t>
+  </si>
+  <si>
+    <t>ACTA</t>
+  </si>
+  <si>
+    <t>CONTRATO</t>
+  </si>
+  <si>
+    <t>EVALUACION</t>
+  </si>
+  <si>
+    <t>INFORME</t>
+  </si>
+  <si>
+    <t>FORMULARIO</t>
+  </si>
+  <si>
+    <t>REGISTRO</t>
+  </si>
+  <si>
+    <t>HOJA MATRICULA</t>
+  </si>
+  <si>
+    <t>DEVOLUCION</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>RETIRO</t>
+  </si>
+  <si>
+    <t>Un Año</t>
+  </si>
+  <si>
+    <t>Dos Años</t>
+  </si>
+  <si>
+    <t>Tres Años</t>
+  </si>
+  <si>
+    <t>registro</t>
+  </si>
+  <si>
+    <t>Permanencia del Estudiante</t>
+  </si>
+  <si>
+    <t>Permanencia del Empleado</t>
+  </si>
+  <si>
+    <t>20 Años</t>
+  </si>
+  <si>
+    <t>Diez Años</t>
+  </si>
+  <si>
+    <t>trd</t>
+  </si>
+  <si>
+    <t>reg</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ELIMINACION</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SELECCIÓN</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>CONSERVACION TOTAL</t>
+  </si>
+  <si>
+    <t>M/D</t>
+  </si>
+  <si>
+    <t>MICROFILMACION Y/O DIGITALIZACION</t>
+  </si>
+  <si>
+    <t>disposicion</t>
   </si>
 </sst>
 </file>
@@ -820,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1027,7 +1114,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,9 +1225,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1149,7 +1238,7 @@
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1159,78 +1248,84 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1497,15 +1592,80 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1515,30 +1675,64 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1742,123 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1556,33 +1866,62 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
